--- a/inst/extdata/test_xtab2020.xlsx
+++ b/inst/extdata/test_xtab2020.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DataHaven0720 Crosstabs" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="DataHaven0720 Crosstabs" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE1" vbProcedure="false">'DataHaven0720 Crosstabs'!$A$1</definedName>
@@ -419,51 +419,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -479,8 +479,114 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -494,13 +600,13 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="6.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="6.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="8.42"/>
@@ -510,8 +616,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="22" style="2" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="6.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="2" width="6.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="30" style="1" width="9.14"/>
   </cols>
@@ -594,7 +700,7 @@
       </c>
       <c r="AC2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -1146,7 +1252,7 @@
       </c>
       <c r="AC10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>8</v>
@@ -2111,7 +2217,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.809722222222222" bottom="0.459722222222222" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" scale="56" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="56" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;CDataHaven Community Wellbeing Survey
 conducted by the Siena College Research Institute
